--- a/data_points.xlsx
+++ b/data_points.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\School\OSU\CS325\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,6 +86,4386 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Edit Distance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4467999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2999090909090913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.787599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.232399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.32979999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1837-4E12-B180-0BB9337FB1B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="455908120"/>
+        <c:axId val="455912056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="455908120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Sequence Length)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455912056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="455912056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455908120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Alignment (Backtrace)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Alignment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3716-4AE0-A3C1-E4D0AA8B8A81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="363575352"/>
+        <c:axId val="455864544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="363575352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input (Sequence</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Length)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455864544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="455864544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363575352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Edit Distance -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>log</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Edit Distance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4467999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2999090909090913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.787599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.232399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.32979999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D00-4F72-9AD3-4B639B9F8B3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="455908120"/>
+        <c:axId val="455912056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="455908120"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Sequence Length)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455912056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="455912056"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455908120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Alignment (Backtrace) - log</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Alignment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA37-4107-8ABD-9CB0463BDB8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="363575352"/>
+        <c:axId val="455864544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="363575352"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input (Sequence</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Length)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455864544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="455864544"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363575352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D6D2FD-3955-456C-B737-7DA27DACE4F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0BA4A0-5929-4A07-9842-F2C630A3AC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F49F1F-75BD-403C-AB84-708366969D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA117BA-7D40-43E8-9465-D566CEB942FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,10 +4731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +5229,71 @@
         <v>0.17</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>LOG(B14)</f>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="C30">
+        <f>LOG(C14)</f>
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <f>C30-B30</f>
+        <v>0.30102999566398125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>LOG(B12)</f>
+        <v>0.16040850008958207</v>
+      </c>
+      <c r="C31">
+        <f>LOG(C12)</f>
+        <v>0.72426842023189375</v>
+      </c>
+      <c r="E31">
+        <f>C31-B31</f>
+        <v>0.56385992014231168</v>
+      </c>
+      <c r="F31" s="1">
+        <f>E31/E30</f>
+        <v>1.8731021103016894</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <f>C47-B47</f>
+        <v>0.30102999566398125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>LOG(B25)</f>
+        <v>-1.7851561519523023</v>
+      </c>
+      <c r="C48">
+        <f>LOG(C25)</f>
+        <v>-1.4814860601221125</v>
+      </c>
+      <c r="E48">
+        <f>C48-B48</f>
+        <v>0.30367009183018978</v>
+      </c>
+      <c r="F48">
+        <f>E48/E47</f>
+        <v>1.0087702096277325</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>